--- a/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/latest_release_yoy_GVA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/latest_release_yoy_GVA.xlsx
@@ -410,7 +410,7 @@
         <v>38717</v>
       </c>
       <c r="B3">
-        <v>1.074913676625133</v>
+        <v>1.074913676625111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>39082</v>
       </c>
       <c r="B4">
-        <v>4.146986305439215</v>
+        <v>4.14401568487659</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>39447</v>
       </c>
       <c r="B5">
-        <v>3.459881913346075</v>
+        <v>3.462833019567579</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>39813</v>
       </c>
       <c r="B6">
-        <v>0.6671812968681134</v>
+        <v>0.6671812968680912</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>40178</v>
       </c>
       <c r="B7">
-        <v>-6.164758722681729</v>
+        <v>-6.164758722681718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>40543</v>
       </c>
       <c r="B8">
-        <v>4.436272363774307</v>
+        <v>4.439190964013684</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>40908</v>
       </c>
       <c r="B9">
-        <v>3.834222955034527</v>
+        <v>3.831321260898735</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>41274</v>
       </c>
       <c r="B10">
-        <v>0.7024626564392511</v>
+        <v>0.7051540842417214</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>41639</v>
       </c>
       <c r="B11">
-        <v>0.6066923241394129</v>
+        <v>0.6040035278082057</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -490,7 +490,7 @@
         <v>42369</v>
       </c>
       <c r="B13">
-        <v>1.164150404074515</v>
+        <v>1.166748954083641</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>42735</v>
       </c>
       <c r="B14">
-        <v>2.214173794662355</v>
+        <v>2.21154834069659</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>43100</v>
       </c>
       <c r="B15">
-        <v>3.231724172593187</v>
+        <v>3.234237177393018</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>43465</v>
       </c>
       <c r="B16">
-        <v>1.234207259183506</v>
+        <v>1.234177215189858</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>43830</v>
       </c>
       <c r="B17">
-        <v>0.7238012792766702</v>
+        <v>0.7261884723591683</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>44196</v>
       </c>
       <c r="B18">
-        <v>-4.715066727146844</v>
+        <v>-4.719616128339188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>44561</v>
       </c>
       <c r="B19">
-        <v>4.008819402685893</v>
+        <v>4.008819402685915</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>44926</v>
       </c>
       <c r="B20">
-        <v>2.252360763152828</v>
+        <v>2.252360763152805</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>45291</v>
       </c>
       <c r="B21">
-        <v>-0.3109760407095874</v>
+        <v>-0.313331919805826</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>45657</v>
       </c>
       <c r="B22">
-        <v>-0.5506321635353917</v>
+        <v>-0.5482818925178212</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/latest_release_yoy_GVA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/latest_release_yoy_GVA.xlsx
@@ -14,21 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -81,12 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -398,168 +455,168 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>38352</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1.043657656017705</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>38717</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1.074913676625111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>39082</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4.14401568487659</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>39447</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3.462833019567579</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>39813</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.6671812968680912</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>40178</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>-6.164758722681718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>40543</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4.439190964013684</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>40908</v>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3.831321260898735</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>41274</v>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.7051540842417214</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>41639</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.6040035278082057</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>42004</v>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2.231490582578455</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>42369</v>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1.166748954083641</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>42735</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2.21154834069659</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>43100</v>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3.234237177393018</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>43465</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1.234177215189858</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>43830</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.7261884723591683</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>44196</v>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>-4.719616128339188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>44561</v>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>4.008819402685915</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>44926</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>2.252360763152805</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
-        <v>45291</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>-0.313331919805826</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>45657</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>-0.5482818925178212</v>

--- a/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/latest_release_yoy_GVA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_GVA_Evaluation_series/latest_release_yoy_GVA.xlsx
@@ -14,81 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
   </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -141,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,168 +398,168 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>38352</v>
       </c>
       <c r="B2">
         <v>1.043657656017705</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>38717</v>
       </c>
       <c r="B3">
         <v>1.074913676625111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>39082</v>
       </c>
       <c r="B4">
         <v>4.14401568487659</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>39447</v>
       </c>
       <c r="B5">
         <v>3.462833019567579</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="2">
+        <v>39813</v>
       </c>
       <c r="B6">
         <v>0.6671812968680912</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>40178</v>
       </c>
       <c r="B7">
         <v>-6.164758722681718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="2">
+        <v>40543</v>
       </c>
       <c r="B8">
         <v>4.439190964013684</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="2">
+        <v>40908</v>
       </c>
       <c r="B9">
         <v>3.831321260898735</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="2">
+        <v>41274</v>
       </c>
       <c r="B10">
         <v>0.7051540842417214</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>41639</v>
       </c>
       <c r="B11">
         <v>0.6040035278082057</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="2">
+        <v>42004</v>
       </c>
       <c r="B12">
         <v>2.231490582578455</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="2">
+        <v>42369</v>
       </c>
       <c r="B13">
         <v>1.166748954083641</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="2">
+        <v>42735</v>
       </c>
       <c r="B14">
         <v>2.21154834069659</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>43100</v>
       </c>
       <c r="B15">
         <v>3.234237177393018</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="2">
+        <v>43465</v>
       </c>
       <c r="B16">
         <v>1.234177215189858</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="2">
+        <v>43830</v>
       </c>
       <c r="B17">
         <v>0.7261884723591683</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>44196</v>
       </c>
       <c r="B18">
         <v>-4.719616128339188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="2">
+        <v>44561</v>
       </c>
       <c r="B19">
         <v>4.008819402685915</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="2">
+        <v>44926</v>
       </c>
       <c r="B20">
         <v>2.252360763152805</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="2">
+        <v>45291</v>
       </c>
       <c r="B21">
         <v>-0.313331919805826</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" s="2">
+        <v>45657</v>
       </c>
       <c r="B22">
         <v>-0.5482818925178212</v>
